--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_5_37.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_5_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3675925.667394271</v>
+        <v>3673674.849008377</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836236</v>
+        <v>6654055.582836239</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>165.1465863713248</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -671,7 +671,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -707,7 +707,7 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>330.6679898432817</v>
       </c>
     </row>
     <row r="3">
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -832,13 +832,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>168.7756050755994</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>78.37104278037474</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -902,16 +902,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>345.5227303257149</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>271.439525616678</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1066,10 +1066,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>99.38122376111798</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>50.05665370612868</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1139,19 +1139,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>184.9344506852099</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>83.40252578334265</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1187,10 +1187,10 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1291,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>139.4363092953499</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1354,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>156.1271626621471</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1467,7 +1467,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,10 +1494,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T12" t="n">
         <v>190.7165703189231</v>
@@ -1528,16 +1528,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>74.75769145492396</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>15.07437110675918</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
@@ -1661,7 +1661,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9951719589025</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1762,16 +1762,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>163.6898441249706</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>72.27752001637613</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
@@ -1822,7 +1822,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1901,7 +1901,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2002,7 +2002,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>25.01141625626346</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2011,10 +2011,10 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2056,7 +2056,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.3610515320113</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2084,7 +2084,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2178,7 +2178,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2251,10 +2251,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>13.21455103355483</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,19 +2284,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>269.6502650859151</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2488,10 +2488,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
@@ -2533,16 +2533,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>19.88757903185262</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>205.3712164508585</v>
       </c>
     </row>
     <row r="26">
@@ -2570,7 +2570,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873215</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292595</v>
@@ -2713,19 +2713,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>118.2984856025743</v>
       </c>
       <c r="U28" t="n">
-        <v>200.6939993756701</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2776,10 +2776,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2843,7 +2843,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
@@ -2886,10 +2886,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2956,13 +2956,13 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>165.6068898702479</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>171.9731989154894</v>
       </c>
     </row>
     <row r="32">
@@ -3190,22 +3190,22 @@
         <v>138.8504880697912</v>
       </c>
       <c r="D34" t="n">
-        <v>120.2191399893757</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>118.0376296177326</v>
+        <v>118.0376296177325</v>
       </c>
       <c r="F34" t="n">
         <v>117.0247149940946</v>
       </c>
       <c r="G34" t="n">
-        <v>137.6294752301916</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>116.3586818854841</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>67.95608738100148</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>60.53581964121073</v>
+        <v>60.53581964121069</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>161.3726923026053</v>
       </c>
       <c r="T34" t="n">
-        <v>93.90653719377011</v>
+        <v>191.1526162473326</v>
       </c>
       <c r="U34" t="n">
-        <v>257.8155051767763</v>
+        <v>257.8155051767762</v>
       </c>
       <c r="V34" t="n">
         <v>223.7413102949914</v>
@@ -3253,7 +3253,7 @@
         <v>197.3133223602005</v>
       </c>
       <c r="Y34" t="n">
-        <v>190.1883203232582</v>
+        <v>5.103394920172406</v>
       </c>
     </row>
     <row r="35">
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534538</v>
       </c>
       <c r="H35" t="n">
         <v>294.6077643873205</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>151.4356471531007</v>
+        <v>35.52782197061591</v>
       </c>
       <c r="C37" t="n">
-        <v>138.8504880697912</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>120.2191399893757</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>118.0376296177325</v>
       </c>
       <c r="F37" t="n">
         <v>117.0247149940946</v>
       </c>
       <c r="G37" t="n">
-        <v>57.5841531329671</v>
+        <v>137.6294752301916</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>116.3586818854842</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>60.53581964121071</v>
       </c>
       <c r="S37" t="n">
         <v>161.3726923026053</v>
@@ -3478,7 +3478,7 @@
         <v>191.1526162473326</v>
       </c>
       <c r="U37" t="n">
-        <v>257.8155051767763</v>
+        <v>257.8155051767762</v>
       </c>
       <c r="V37" t="n">
         <v>223.7413102949914</v>
@@ -3560,7 +3560,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>151.4356471531007</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>138.8504880697912</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>120.2191399893757</v>
       </c>
       <c r="E40" t="n">
-        <v>118.0376296177326</v>
+        <v>33.34631159897262</v>
       </c>
       <c r="F40" t="n">
-        <v>116.255085639338</v>
+        <v>117.0247149940946</v>
       </c>
       <c r="G40" t="n">
         <v>137.6294752301916</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>116.3586818854841</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>60.53581964121072</v>
       </c>
       <c r="S40" t="n">
         <v>161.3726923026053</v>
@@ -3715,7 +3715,7 @@
         <v>191.1526162473326</v>
       </c>
       <c r="U40" t="n">
-        <v>257.8155051767763</v>
+        <v>257.8155051767762</v>
       </c>
       <c r="V40" t="n">
         <v>223.7413102949914</v>
@@ -3724,7 +3724,7 @@
         <v>258.1266653077544</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>197.3133223602005</v>
       </c>
       <c r="Y40" t="n">
         <v>190.1883203232582</v>
@@ -3895,22 +3895,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>151.4356471531007</v>
+        <v>151.4356471531006</v>
       </c>
       <c r="C43" t="n">
-        <v>138.8504880697912</v>
+        <v>134.8859069379103</v>
       </c>
       <c r="D43" t="n">
         <v>120.2191399893757</v>
       </c>
       <c r="E43" t="n">
-        <v>118.0376296177326</v>
+        <v>118.0376296177325</v>
       </c>
       <c r="F43" t="n">
-        <v>80.31445558174232</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>137.6294752301916</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3943,19 +3943,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>60.53581964121067</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>161.3726923026052</v>
       </c>
       <c r="T43" t="n">
-        <v>191.1526162473326</v>
+        <v>191.1526162473325</v>
       </c>
       <c r="U43" t="n">
-        <v>257.8155051767763</v>
+        <v>257.8155051767762</v>
       </c>
       <c r="V43" t="n">
-        <v>223.7413102949914</v>
+        <v>223.7413102949913</v>
       </c>
       <c r="W43" t="n">
         <v>258.1266653077544</v>
@@ -3964,7 +3964,7 @@
         <v>197.3133223602005</v>
       </c>
       <c r="Y43" t="n">
-        <v>190.1883203232582</v>
+        <v>190.1883203232581</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4071,10 +4071,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247739</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,10 +4101,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734097636</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T45" t="n">
         <v>190.7165703189231</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>151.4356471531007</v>
+        <v>151.4356471531006</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>138.8504880697912</v>
       </c>
       <c r="D46" t="n">
         <v>120.2191399893757</v>
       </c>
       <c r="E46" t="n">
-        <v>118.0376296177326</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>117.0247149940946</v>
       </c>
       <c r="G46" t="n">
-        <v>137.6294752301916</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>67.95608738100142</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,19 +4180,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>60.53581964121067</v>
       </c>
       <c r="S46" t="n">
-        <v>102.1402286574405</v>
+        <v>161.3726923026052</v>
       </c>
       <c r="T46" t="n">
-        <v>191.1526162473326</v>
+        <v>191.1526162473325</v>
       </c>
       <c r="U46" t="n">
-        <v>257.8155051767763</v>
+        <v>257.8155051767762</v>
       </c>
       <c r="V46" t="n">
-        <v>223.7413102949914</v>
+        <v>223.7413102949913</v>
       </c>
       <c r="W46" t="n">
         <v>258.1266653077544</v>
@@ -4201,7 +4201,7 @@
         <v>197.3133223602005</v>
       </c>
       <c r="Y46" t="n">
-        <v>190.1883203232582</v>
+        <v>119.2805664340142</v>
       </c>
     </row>
   </sheetData>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>722.2873163082934</v>
+        <v>1328.4755035807</v>
       </c>
       <c r="C2" t="n">
-        <v>555.4725825998845</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>555.4725825998845</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>555.4725825998845</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>548.527081850681</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
         <v>534.603677789272</v>
@@ -4328,13 +4328,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2169.72394915887</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1838.661061815299</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1485.892406545185</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>1112.426648284105</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y2" t="n">
-        <v>722.2873163082934</v>
+        <v>1328.4755035807</v>
       </c>
     </row>
     <row r="3">
@@ -4398,10 +4398,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4431,7 +4431,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>405.2609724030931</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>405.2609724030931</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>405.2609724030931</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>484.4236418782191</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T4" t="n">
-        <v>484.4236418782191</v>
+        <v>343.360151857325</v>
       </c>
       <c r="U4" t="n">
-        <v>484.4236418782191</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V4" t="n">
-        <v>484.4236418782191</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W4" t="n">
-        <v>484.4236418782191</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>484.4236418782191</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>405.2609724030931</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1231.905553626649</v>
+        <v>787.7948591932184</v>
       </c>
       <c r="C5" t="n">
-        <v>1231.905553626649</v>
+        <v>787.7948591932184</v>
       </c>
       <c r="D5" t="n">
-        <v>1231.905553626649</v>
+        <v>787.7948591932184</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117852</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4571,7 +4571,7 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2302.336936304455</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2302.336936304455</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>1971.274048960885</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W5" t="n">
-        <v>1618.50539369077</v>
+        <v>1937.999789494232</v>
       </c>
       <c r="X5" t="n">
-        <v>1618.50539369077</v>
+        <v>1564.534031233152</v>
       </c>
       <c r="Y5" t="n">
-        <v>1618.50539369077</v>
+        <v>1174.39469925734</v>
       </c>
     </row>
     <row r="6">
@@ -4656,10 +4656,10 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>473.4444960005476</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>473.4444960005476</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>323.3278565882118</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>323.3278565882118</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>323.3278565882118</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>154.3280563265442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
         <v>53.94298182036445</v>
@@ -4747,28 +4747,28 @@
         <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="V7" t="n">
-        <v>473.4444960005476</v>
+        <v>325.2978374347316</v>
       </c>
       <c r="W7" t="n">
-        <v>473.4444960005476</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X7" t="n">
-        <v>473.4444960005476</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y7" t="n">
-        <v>473.4444960005476</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1034.617283051399</v>
+        <v>1053.350203651864</v>
       </c>
       <c r="C8" t="n">
-        <v>665.6547661109871</v>
+        <v>684.3876867114525</v>
       </c>
       <c r="D8" t="n">
-        <v>665.6547661109871</v>
+        <v>684.3876867114525</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>298.5994341132082</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>291.6539333640048</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2478.514423990285</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U8" t="n">
-        <v>2478.514423990285</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V8" t="n">
-        <v>2147.451536646714</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="W8" t="n">
-        <v>1794.6828813766</v>
+        <v>1816.955293888756</v>
       </c>
       <c r="X8" t="n">
-        <v>1421.217123115521</v>
+        <v>1443.489535627676</v>
       </c>
       <c r="Y8" t="n">
-        <v>1421.217123115521</v>
+        <v>1053.350203651864</v>
       </c>
     </row>
     <row r="9">
@@ -4887,7 +4887,7 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417902</v>
@@ -4936,10 +4936,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>372.9958041606071</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
         <v>53.94298182036445</v>
@@ -4984,28 +4984,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>587.2842273424444</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>372.9958041606071</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>372.9958041606071</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U10" t="n">
-        <v>372.9958041606071</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="V10" t="n">
-        <v>372.9958041606071</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="W10" t="n">
-        <v>372.9958041606071</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="X10" t="n">
-        <v>372.9958041606071</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>372.9958041606071</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5018,49 +5018,49 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I11" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>451.845814427773</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K11" t="n">
         <v>1106.569146563073</v>
       </c>
       <c r="L11" t="n">
-        <v>1557.603359811481</v>
+        <v>1849.525439218844</v>
       </c>
       <c r="M11" t="n">
-        <v>2091.135264483406</v>
+        <v>2383.057343890769</v>
       </c>
       <c r="N11" t="n">
-        <v>3070.887536710053</v>
+        <v>3362.809616117416</v>
       </c>
       <c r="O11" t="n">
-        <v>3865.782086996752</v>
+        <v>3865.782086996753</v>
       </c>
       <c r="P11" t="n">
-        <v>4260.55645335393</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q11" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
@@ -5072,19 +5072,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="12">
@@ -5094,22 +5094,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973199</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161929</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549417</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494862</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763712</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089893</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H12" t="n">
         <v>114.5683260468568</v>
@@ -5118,19 +5118,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390115</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320238</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M12" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O12" t="n">
         <v>2125.96131142685</v>
@@ -5151,10 +5151,10 @@
         <v>2271.877220313404</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V12" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W12" t="n">
         <v>1554.419908487875</v>
@@ -5173,16 +5173,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>260.904311342305</v>
+        <v>171.0738540998328</v>
       </c>
       <c r="C13" t="n">
-        <v>260.904311342305</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D13" t="n">
-        <v>110.7876719299693</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E13" t="n">
-        <v>110.7876719299693</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F13" t="n">
         <v>95.56103444839442</v>
@@ -5200,13 +5200,13 @@
         <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442065</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L13" t="n">
         <v>661.2306482927027</v>
       </c>
       <c r="M13" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N13" t="n">
         <v>1346.796070598116</v>
@@ -5221,28 +5221,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S13" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T13" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U13" t="n">
-        <v>1253.7880996267</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V13" t="n">
-        <v>999.1036114208132</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W13" t="n">
-        <v>709.6864413838525</v>
+        <v>619.8559841413802</v>
       </c>
       <c r="X13" t="n">
-        <v>481.6968904858352</v>
+        <v>391.8664332433628</v>
       </c>
       <c r="Y13" t="n">
-        <v>260.904311342305</v>
+        <v>171.0738540998328</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E14" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F14" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H14" t="n">
         <v>137.5579332089257</v>
@@ -5276,25 +5276,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K14" t="n">
-        <v>913.1101661838561</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L14" t="n">
-        <v>1364.144379432265</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M14" t="n">
-        <v>1897.67628410419</v>
+        <v>2215.249704195857</v>
       </c>
       <c r="N14" t="n">
-        <v>2877.428556330836</v>
+        <v>3044.228895027648</v>
       </c>
       <c r="O14" t="n">
-        <v>3757.393206660291</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P14" t="n">
-        <v>4470.748294107237</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q14" t="n">
         <v>4719.034655862919</v>
@@ -5303,25 +5303,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="15">
@@ -5331,37 +5331,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K15" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5397,10 +5397,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="16">
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>464.9024566190099</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C16" t="n">
-        <v>464.9024566190099</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D16" t="n">
-        <v>314.7858172066741</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E16" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F16" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G16" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H16" t="n">
         <v>95.56103444839442</v>
@@ -5440,7 +5440,7 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L16" t="n">
-        <v>661.2306482927025</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M16" t="n">
         <v>1005.387693892251</v>
@@ -5449,37 +5449,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P16" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R16" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S16" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T16" t="n">
-        <v>1453.060509258584</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U16" t="n">
-        <v>1163.957642384227</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V16" t="n">
-        <v>1163.957642384227</v>
+        <v>999.1036114208122</v>
       </c>
       <c r="W16" t="n">
-        <v>874.5404723472669</v>
+        <v>709.6864413838515</v>
       </c>
       <c r="X16" t="n">
-        <v>646.5509214492496</v>
+        <v>481.6968904858342</v>
       </c>
       <c r="Y16" t="n">
-        <v>646.5509214492496</v>
+        <v>260.904311342304</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E17" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F17" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H17" t="n">
         <v>137.5579332089257</v>
@@ -5513,19 +5513,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K17" t="n">
-        <v>939.1634975427194</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L17" t="n">
-        <v>1390.197710791128</v>
+        <v>1472.533259768727</v>
       </c>
       <c r="M17" t="n">
-        <v>2368.748013620957</v>
+        <v>2006.065164440651</v>
       </c>
       <c r="N17" t="n">
-        <v>3348.500285847604</v>
+        <v>2985.817436667298</v>
       </c>
       <c r="O17" t="n">
         <v>3865.782086996753</v>
@@ -5540,25 +5540,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="18">
@@ -5568,37 +5568,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161924</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320245</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
@@ -5610,22 +5610,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q18" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T18" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V18" t="n">
         <v>1808.657265216076</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>560.2704579839215</v>
+        <v>270.9417306852388</v>
       </c>
       <c r="C19" t="n">
-        <v>560.2704579839215</v>
+        <v>245.6776738607302</v>
       </c>
       <c r="D19" t="n">
-        <v>410.1538185715857</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E19" t="n">
-        <v>410.1538185715857</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F19" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G19" t="n">
         <v>95.56103444839442</v>
@@ -5680,13 +5680,13 @@
         <v>661.2306482927024</v>
       </c>
       <c r="M19" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N19" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598117</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P19" t="n">
         <v>1878.733169952189</v>
@@ -5701,22 +5701,22 @@
         <v>1956.343466104704</v>
       </c>
       <c r="T19" t="n">
-        <v>1734.576850674229</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U19" t="n">
-        <v>1734.576850674229</v>
+        <v>1445.473983799874</v>
       </c>
       <c r="V19" t="n">
-        <v>1479.892362468343</v>
+        <v>1190.789495593987</v>
       </c>
       <c r="W19" t="n">
-        <v>1190.475192431382</v>
+        <v>901.372325557026</v>
       </c>
       <c r="X19" t="n">
-        <v>962.4856415333645</v>
+        <v>673.3827746590086</v>
       </c>
       <c r="Y19" t="n">
-        <v>741.9189228141612</v>
+        <v>452.5901955154785</v>
       </c>
     </row>
     <row r="20">
@@ -5732,16 +5732,16 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F20" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H20" t="n">
         <v>137.5579332089257</v>
@@ -5756,16 +5756,16 @@
         <v>939.1634975427194</v>
       </c>
       <c r="L20" t="n">
-        <v>1390.197710791128</v>
+        <v>1797.117834600129</v>
       </c>
       <c r="M20" t="n">
-        <v>2368.748013620957</v>
+        <v>2330.649739272054</v>
       </c>
       <c r="N20" t="n">
-        <v>2915.526830679739</v>
+        <v>2877.428556330836</v>
       </c>
       <c r="O20" t="n">
-        <v>3795.491481009194</v>
+        <v>3757.393206660291</v>
       </c>
       <c r="P20" t="n">
         <v>4470.748294107237</v>
@@ -5805,64 +5805,64 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161926</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G21" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I21" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K21" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O21" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q21" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S21" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T21" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V21" t="n">
         <v>1808.657265216076</v>
@@ -5871,10 +5871,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="22">
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>730.2297869963112</v>
+        <v>425.7583423057191</v>
       </c>
       <c r="C22" t="n">
-        <v>561.2936040684043</v>
+        <v>256.8221593778126</v>
       </c>
       <c r="D22" t="n">
-        <v>411.1769646560686</v>
+        <v>256.8221593778126</v>
       </c>
       <c r="E22" t="n">
-        <v>263.2638710736755</v>
+        <v>108.9090657954195</v>
       </c>
       <c r="F22" t="n">
-        <v>263.2638710736754</v>
+        <v>108.9090657954195</v>
       </c>
       <c r="G22" t="n">
-        <v>95.56103444839442</v>
+        <v>108.9090657954195</v>
       </c>
       <c r="H22" t="n">
         <v>95.56103444839442</v>
@@ -5923,37 +5923,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P22" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S22" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T22" t="n">
-        <v>1956.343466104704</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U22" t="n">
-        <v>1683.969460967416</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V22" t="n">
-        <v>1429.284972761529</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="W22" t="n">
-        <v>1139.867802724568</v>
+        <v>874.5404723472666</v>
       </c>
       <c r="X22" t="n">
-        <v>911.8782518265509</v>
+        <v>646.5509214492492</v>
       </c>
       <c r="Y22" t="n">
-        <v>911.8782518265509</v>
+        <v>425.7583423057191</v>
       </c>
     </row>
     <row r="23">
@@ -5978,37 +5978,37 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K23" t="n">
-        <v>785.6651881176194</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L23" t="n">
-        <v>1236.699401366028</v>
+        <v>1453.840519464784</v>
       </c>
       <c r="M23" t="n">
-        <v>2215.249704195857</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N23" t="n">
-        <v>3195.001976422504</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O23" t="n">
-        <v>4074.966626751958</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R23" t="n">
         <v>4778.051722419721</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>726.3303343661174</v>
+        <v>412.4103109586945</v>
       </c>
       <c r="C25" t="n">
-        <v>557.3941514382105</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="D25" t="n">
-        <v>557.3941514382105</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E25" t="n">
-        <v>409.4810578558174</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F25" t="n">
-        <v>409.4810578558174</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G25" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H25" t="n">
         <v>95.56103444839442</v>
@@ -6160,37 +6160,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P25" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S25" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T25" t="n">
-        <v>1734.57685067423</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U25" t="n">
-        <v>1445.473983799873</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V25" t="n">
-        <v>1425.385520131335</v>
+        <v>909.2731541783404</v>
       </c>
       <c r="W25" t="n">
-        <v>1135.968350094375</v>
+        <v>619.8559841413798</v>
       </c>
       <c r="X25" t="n">
-        <v>907.9787991963572</v>
+        <v>619.8559841413798</v>
       </c>
       <c r="Y25" t="n">
-        <v>907.9787991963572</v>
+        <v>412.4103109586945</v>
       </c>
     </row>
     <row r="26">
@@ -6212,10 +6212,10 @@
         <v>1261.199888544771</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551631</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001596</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
@@ -6227,16 +6227,16 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K26" t="n">
-        <v>1106.569146563073</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L26" t="n">
-        <v>1772.421240554552</v>
+        <v>1650.184003770974</v>
       </c>
       <c r="M26" t="n">
-        <v>2750.97154338438</v>
+        <v>2628.734306600803</v>
       </c>
       <c r="N26" t="n">
-        <v>3297.750360443163</v>
+        <v>3175.513123659585</v>
       </c>
       <c r="O26" t="n">
         <v>3800.7228313225</v>
@@ -6279,31 +6279,31 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973199</v>
       </c>
       <c r="C27" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161929</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549417</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494862</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763712</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I27" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K27" t="n">
         <v>427.5025029193589</v>
@@ -6321,34 +6321,34 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q27" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R27" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S27" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T27" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
       </c>
       <c r="W27" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="28">
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>579.0900014994927</v>
+        <v>540.4807149410337</v>
       </c>
       <c r="C28" t="n">
-        <v>410.1538185715858</v>
+        <v>540.4807149410337</v>
       </c>
       <c r="D28" t="n">
-        <v>410.1538185715858</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E28" t="n">
-        <v>410.1538185715858</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F28" t="n">
-        <v>263.2638710736755</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G28" t="n">
         <v>95.56103444839442</v>
@@ -6382,7 +6382,7 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J28" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K28" t="n">
         <v>344.6708498442063</v>
@@ -6400,34 +6400,34 @@
         <v>1646.125669518529</v>
       </c>
       <c r="P28" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952188</v>
       </c>
       <c r="Q28" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R28" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S28" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T28" t="n">
-        <v>1956.343466104704</v>
+        <v>1555.333704888477</v>
       </c>
       <c r="U28" t="n">
-        <v>1753.622254614128</v>
+        <v>1266.230838014121</v>
       </c>
       <c r="V28" t="n">
-        <v>1498.937766408241</v>
+        <v>1011.546349808234</v>
       </c>
       <c r="W28" t="n">
-        <v>1209.52059637128</v>
+        <v>722.1291797712735</v>
       </c>
       <c r="X28" t="n">
-        <v>981.5310454732626</v>
+        <v>722.1291797712735</v>
       </c>
       <c r="Y28" t="n">
-        <v>760.7384663297324</v>
+        <v>722.1291797712735</v>
       </c>
     </row>
     <row r="29">
@@ -6464,25 +6464,25 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K29" t="n">
-        <v>939.1634975427194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L29" t="n">
-        <v>1390.197710791128</v>
+        <v>1069.293752345675</v>
       </c>
       <c r="M29" t="n">
-        <v>2368.748013620957</v>
+        <v>2047.844055175503</v>
       </c>
       <c r="N29" t="n">
-        <v>2915.526830679739</v>
+        <v>3027.59632740215</v>
       </c>
       <c r="O29" t="n">
-        <v>3795.491481009194</v>
+        <v>3530.568798281487</v>
       </c>
       <c r="P29" t="n">
-        <v>4260.556453353931</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R29" t="n">
         <v>4778.051722419721</v>
@@ -6516,43 +6516,43 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089899</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I30" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320249</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M30" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O30" t="n">
         <v>2125.96131142685</v>
@@ -6561,7 +6561,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q30" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
         <v>2593.958107142068</v>
@@ -6570,16 +6570,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T30" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V30" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W30" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
         <v>1346.568408282342</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.1131475839755</v>
+        <v>264.4972173763014</v>
       </c>
       <c r="C31" t="n">
-        <v>411.1769646560686</v>
+        <v>95.56103444839451</v>
       </c>
       <c r="D31" t="n">
-        <v>411.1769646560686</v>
+        <v>95.56103444839451</v>
       </c>
       <c r="E31" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839447</v>
       </c>
       <c r="F31" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G31" t="n">
         <v>95.56103444839442</v>
@@ -6619,52 +6619,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J31" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L31" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927023</v>
       </c>
       <c r="M31" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N31" t="n">
         <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P31" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952188</v>
       </c>
       <c r="Q31" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S31" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T31" t="n">
-        <v>1789.06377936708</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U31" t="n">
-        <v>1499.960912492723</v>
+        <v>1163.957642384226</v>
       </c>
       <c r="V31" t="n">
-        <v>1499.960912492723</v>
+        <v>909.2731541783395</v>
       </c>
       <c r="W31" t="n">
-        <v>1210.543742455763</v>
+        <v>619.8559841413789</v>
       </c>
       <c r="X31" t="n">
-        <v>982.5541915577453</v>
+        <v>619.8559841413789</v>
       </c>
       <c r="Y31" t="n">
-        <v>761.7616124142153</v>
+        <v>446.1456822065411</v>
       </c>
     </row>
     <row r="32">
@@ -6689,7 +6689,7 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H32" t="n">
         <v>137.5579332089257</v>
@@ -6701,25 +6701,25 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K32" t="n">
-        <v>1106.569146563073</v>
+        <v>919.9473678912366</v>
       </c>
       <c r="L32" t="n">
-        <v>1971.087962216427</v>
+        <v>1784.466183544591</v>
       </c>
       <c r="M32" t="n">
-        <v>2593.249184644075</v>
+        <v>2317.998088216516</v>
       </c>
       <c r="N32" t="n">
-        <v>3573.001456870722</v>
+        <v>3297.750360443163</v>
       </c>
       <c r="O32" t="n">
-        <v>4075.973927750058</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P32" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R32" t="n">
         <v>4778.051722419721</v>
@@ -6753,43 +6753,43 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I33" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K33" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193585</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320243</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O33" t="n">
         <v>2125.96131142685</v>
@@ -6819,10 +6819,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="34">
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>733.7039111162592</v>
+        <v>659.4272990424388</v>
       </c>
       <c r="C34" t="n">
-        <v>593.4508928639448</v>
+        <v>519.1742807901245</v>
       </c>
       <c r="D34" t="n">
-        <v>472.0174181272016</v>
+        <v>519.1742807901245</v>
       </c>
       <c r="E34" t="n">
-        <v>352.787489220401</v>
+        <v>399.9443518833239</v>
       </c>
       <c r="F34" t="n">
-        <v>234.5807063980829</v>
+        <v>281.7375690610061</v>
       </c>
       <c r="G34" t="n">
-        <v>95.56103444839442</v>
+        <v>281.7375690610061</v>
       </c>
       <c r="H34" t="n">
-        <v>95.56103444839442</v>
+        <v>164.2035469544565</v>
       </c>
       <c r="I34" t="n">
         <v>95.56103444839442</v>
@@ -6862,7 +6862,7 @@
         <v>400.8955892413028</v>
       </c>
       <c r="L34" t="n">
-        <v>745.5677573883471</v>
+        <v>745.5677573883472</v>
       </c>
       <c r="M34" t="n">
         <v>1117.837172686444</v>
@@ -6877,31 +6877,31 @@
         <v>2075.519757842027</v>
       </c>
       <c r="Q34" t="n">
-        <v>2181.24242369309</v>
+        <v>2181.242423693089</v>
       </c>
       <c r="R34" t="n">
         <v>2120.09513112621</v>
       </c>
       <c r="S34" t="n">
-        <v>2120.09513112621</v>
+        <v>1957.092411628629</v>
       </c>
       <c r="T34" t="n">
-        <v>2025.240043051695</v>
+        <v>1764.008960873747</v>
       </c>
       <c r="U34" t="n">
-        <v>1764.820340852931</v>
+        <v>1503.589258674984</v>
       </c>
       <c r="V34" t="n">
-        <v>1538.819017322637</v>
+        <v>1277.587935144689</v>
       </c>
       <c r="W34" t="n">
-        <v>1278.085011961269</v>
+        <v>1016.853929783321</v>
       </c>
       <c r="X34" t="n">
-        <v>1078.778625738844</v>
+        <v>817.5475435608964</v>
       </c>
       <c r="Y34" t="n">
-        <v>886.6692112709063</v>
+        <v>812.3925991970859</v>
       </c>
     </row>
     <row r="35">
@@ -6917,16 +6917,16 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H35" t="n">
         <v>137.5579332089257</v>
@@ -6935,25 +6935,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K35" t="n">
-        <v>618.2595390972663</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L35" t="n">
-        <v>1069.293752345675</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M35" t="n">
-        <v>2047.844055175504</v>
+        <v>2215.249704195857</v>
       </c>
       <c r="N35" t="n">
-        <v>3027.596327402151</v>
+        <v>3195.001976422504</v>
       </c>
       <c r="O35" t="n">
-        <v>3907.560977731605</v>
+        <v>3757.393206660291</v>
       </c>
       <c r="P35" t="n">
-        <v>4302.335344088783</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q35" t="n">
         <v>4719.034655862919</v>
@@ -6990,25 +6990,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973199</v>
       </c>
       <c r="C36" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161929</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549417</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494862</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763712</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I36" t="n">
         <v>95.56103444839442</v>
@@ -7017,49 +7017,49 @@
         <v>189.238303939012</v>
       </c>
       <c r="K36" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L36" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320248</v>
       </c>
       <c r="M36" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N36" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O36" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P36" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q36" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R36" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S36" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T36" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V36" t="n">
         <v>1808.657265216076</v>
       </c>
       <c r="W36" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="37">
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>533.6201215051913</v>
+        <v>589.5514402337509</v>
       </c>
       <c r="C37" t="n">
-        <v>393.3671032528769</v>
+        <v>589.5514402337509</v>
       </c>
       <c r="D37" t="n">
-        <v>271.9336285161335</v>
+        <v>589.5514402337509</v>
       </c>
       <c r="E37" t="n">
-        <v>271.9336285161335</v>
+        <v>470.3215113269504</v>
       </c>
       <c r="F37" t="n">
-        <v>153.7268456938159</v>
+        <v>352.1147285046326</v>
       </c>
       <c r="G37" t="n">
-        <v>95.56103444839442</v>
+        <v>213.0950565549441</v>
       </c>
       <c r="H37" t="n">
         <v>95.56103444839442</v>
@@ -7099,13 +7099,13 @@
         <v>400.8955892413029</v>
       </c>
       <c r="L37" t="n">
-        <v>745.5677573883473</v>
+        <v>745.5677573883474</v>
       </c>
       <c r="M37" t="n">
         <v>1117.837172686445</v>
       </c>
       <c r="N37" t="n">
-        <v>1487.357919090857</v>
+        <v>1487.357919090858</v>
       </c>
       <c r="O37" t="n">
         <v>1814.799887709819</v>
@@ -7117,28 +7117,28 @@
         <v>2181.24242369309</v>
       </c>
       <c r="R37" t="n">
-        <v>2181.24242369309</v>
+        <v>2120.095131126211</v>
       </c>
       <c r="S37" t="n">
-        <v>2018.239704195508</v>
+        <v>1957.092411628629</v>
       </c>
       <c r="T37" t="n">
-        <v>1825.156253440627</v>
+        <v>1764.008960873748</v>
       </c>
       <c r="U37" t="n">
-        <v>1564.736551241863</v>
+        <v>1503.589258674984</v>
       </c>
       <c r="V37" t="n">
-        <v>1338.735227711569</v>
+        <v>1277.58793514469</v>
       </c>
       <c r="W37" t="n">
-        <v>1078.001222350201</v>
+        <v>1016.853929783321</v>
       </c>
       <c r="X37" t="n">
-        <v>878.6948361277761</v>
+        <v>817.5475435608964</v>
       </c>
       <c r="Y37" t="n">
-        <v>686.5854216598384</v>
+        <v>625.4381290929589</v>
       </c>
     </row>
     <row r="38">
@@ -7151,19 +7151,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F38" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H38" t="n">
         <v>137.5579332089257</v>
@@ -7172,28 +7172,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K38" t="n">
-        <v>939.1634975427194</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L38" t="n">
-        <v>1390.197710791128</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M38" t="n">
-        <v>1923.729615463053</v>
+        <v>2215.249704195857</v>
       </c>
       <c r="N38" t="n">
-        <v>2903.481887689699</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O38" t="n">
-        <v>3783.446538019154</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P38" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q38" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R38" t="n">
         <v>4778.051722419721</v>
@@ -7211,7 +7211,7 @@
         <v>3877.189942261304</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X38" t="n">
         <v>3150.95552873011</v>
@@ -7227,19 +7227,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161924</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G39" t="n">
         <v>205.0702204089889</v>
@@ -7269,22 +7269,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P39" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q39" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R39" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S39" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T39" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V39" t="n">
         <v>1808.657265216076</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>732.9265077276157</v>
+        <v>625.4381290929591</v>
       </c>
       <c r="C40" t="n">
-        <v>592.6734894753015</v>
+        <v>625.4381290929591</v>
       </c>
       <c r="D40" t="n">
-        <v>471.2400147385583</v>
+        <v>504.0046543562156</v>
       </c>
       <c r="E40" t="n">
-        <v>352.0100858317577</v>
+        <v>470.3215113269503</v>
       </c>
       <c r="F40" t="n">
-        <v>234.5807063980829</v>
+        <v>352.1147285046325</v>
       </c>
       <c r="G40" t="n">
-        <v>95.56103444839442</v>
+        <v>213.0950565549441</v>
       </c>
       <c r="H40" t="n">
         <v>95.56103444839442</v>
@@ -7354,28 +7354,28 @@
         <v>2181.242423693089</v>
       </c>
       <c r="R40" t="n">
-        <v>2181.242423693089</v>
+        <v>2120.09513112621</v>
       </c>
       <c r="S40" t="n">
-        <v>2018.239704195508</v>
+        <v>1957.092411628629</v>
       </c>
       <c r="T40" t="n">
-        <v>1825.156253440627</v>
+        <v>1764.008960873748</v>
       </c>
       <c r="U40" t="n">
-        <v>1564.736551241863</v>
+        <v>1503.589258674984</v>
       </c>
       <c r="V40" t="n">
-        <v>1338.735227711568</v>
+        <v>1277.587935144689</v>
       </c>
       <c r="W40" t="n">
-        <v>1078.0012223502</v>
+        <v>1016.853929783321</v>
       </c>
       <c r="X40" t="n">
-        <v>1078.0012223502</v>
+        <v>817.5475435608967</v>
       </c>
       <c r="Y40" t="n">
-        <v>885.8918078822628</v>
+        <v>625.4381290929591</v>
       </c>
     </row>
     <row r="41">
@@ -7385,49 +7385,49 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I41" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K41" t="n">
-        <v>939.1634975427194</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L41" t="n">
-        <v>1390.197710791128</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M41" t="n">
-        <v>2368.748013620957</v>
+        <v>1770.231306037953</v>
       </c>
       <c r="N41" t="n">
-        <v>3348.500285847604</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O41" t="n">
-        <v>3851.472756726941</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P41" t="n">
-        <v>4405.689038432984</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q41" t="n">
         <v>4653.975400188666</v>
@@ -7442,19 +7442,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161933</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I42" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320249</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M42" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N42" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O42" t="n">
         <v>2125.96131142685</v>
       </c>
       <c r="P42" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q42" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R42" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S42" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T42" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V42" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W42" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="43">
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>696.6228410027722</v>
+        <v>472.4728289383122</v>
       </c>
       <c r="C43" t="n">
-        <v>556.3698227504578</v>
+        <v>336.2244380919381</v>
       </c>
       <c r="D43" t="n">
-        <v>434.9363480137147</v>
+        <v>214.7909633551949</v>
       </c>
       <c r="E43" t="n">
-        <v>315.706419106914</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F43" t="n">
-        <v>234.5807063980829</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G43" t="n">
         <v>95.56103444839442</v>
@@ -7570,7 +7570,7 @@
         <v>168.7960365938783</v>
       </c>
       <c r="K43" t="n">
-        <v>400.8955892413029</v>
+        <v>400.895589241303</v>
       </c>
       <c r="L43" t="n">
         <v>745.5677573883473</v>
@@ -7579,7 +7579,7 @@
         <v>1117.837172686445</v>
       </c>
       <c r="N43" t="n">
-        <v>1487.357919090857</v>
+        <v>1487.357919090858</v>
       </c>
       <c r="O43" t="n">
         <v>1814.799887709819</v>
@@ -7588,31 +7588,31 @@
         <v>2075.519757842027</v>
       </c>
       <c r="Q43" t="n">
-        <v>2181.24242369309</v>
+        <v>2181.242423693089</v>
       </c>
       <c r="R43" t="n">
-        <v>2181.24242369309</v>
+        <v>2120.09513112621</v>
       </c>
       <c r="S43" t="n">
-        <v>2181.24242369309</v>
+        <v>1957.092411628629</v>
       </c>
       <c r="T43" t="n">
-        <v>1988.158972938208</v>
+        <v>1764.008960873748</v>
       </c>
       <c r="U43" t="n">
-        <v>1727.739270739444</v>
+        <v>1503.589258674984</v>
       </c>
       <c r="V43" t="n">
-        <v>1501.73794720915</v>
+        <v>1277.58793514469</v>
       </c>
       <c r="W43" t="n">
-        <v>1241.003941847782</v>
+        <v>1016.853929783322</v>
       </c>
       <c r="X43" t="n">
-        <v>1041.697555625357</v>
+        <v>817.5475435608969</v>
       </c>
       <c r="Y43" t="n">
-        <v>849.5881411574194</v>
+        <v>625.4381290929593</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I44" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>284.4401654074201</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K44" t="n">
-        <v>939.1634975427198</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L44" t="n">
-        <v>1803.682313196075</v>
+        <v>1729.091615892343</v>
       </c>
       <c r="M44" t="n">
-        <v>2750.971543384379</v>
+        <v>2707.641918722172</v>
       </c>
       <c r="N44" t="n">
-        <v>3297.750360443162</v>
+        <v>3254.420735780954</v>
       </c>
       <c r="O44" t="n">
-        <v>3800.7228313225</v>
+        <v>3757.393206660291</v>
       </c>
       <c r="P44" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q44" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R44" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S44" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="45">
@@ -7701,46 +7701,46 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161925</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G45" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I45" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320247</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M45" t="n">
-        <v>1241.476988454339</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O45" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P45" t="n">
         <v>2436.460902902952</v>
@@ -7749,10 +7749,10 @@
         <v>2594.102460549552</v>
       </c>
       <c r="R45" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S45" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T45" t="n">
         <v>2271.877220313403</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>593.4508928639445</v>
+        <v>544.0968227658317</v>
       </c>
       <c r="C46" t="n">
-        <v>593.4508928639445</v>
+        <v>403.8438045135174</v>
       </c>
       <c r="D46" t="n">
-        <v>472.0174181272014</v>
+        <v>282.4103297767742</v>
       </c>
       <c r="E46" t="n">
-        <v>352.7874892204006</v>
+        <v>282.4103297767742</v>
       </c>
       <c r="F46" t="n">
-        <v>234.5807063980829</v>
+        <v>164.2035469544565</v>
       </c>
       <c r="G46" t="n">
-        <v>95.56103444839442</v>
+        <v>164.2035469544565</v>
       </c>
       <c r="H46" t="n">
-        <v>95.56103444839442</v>
+        <v>164.2035469544565</v>
       </c>
       <c r="I46" t="n">
         <v>95.56103444839442</v>
@@ -7807,10 +7807,10 @@
         <v>168.7960365938783</v>
       </c>
       <c r="K46" t="n">
-        <v>400.8955892413031</v>
+        <v>400.895589241303</v>
       </c>
       <c r="L46" t="n">
-        <v>745.5677573883476</v>
+        <v>745.5677573883474</v>
       </c>
       <c r="M46" t="n">
         <v>1117.837172686445</v>
@@ -7819,37 +7819,37 @@
         <v>1487.357919090858</v>
       </c>
       <c r="O46" t="n">
-        <v>1814.79988770982</v>
+        <v>1814.799887709819</v>
       </c>
       <c r="P46" t="n">
-        <v>2075.519757842028</v>
+        <v>2075.519757842027</v>
       </c>
       <c r="Q46" t="n">
-        <v>2181.242423693091</v>
+        <v>2181.24242369309</v>
       </c>
       <c r="R46" t="n">
-        <v>2181.242423693091</v>
+        <v>2120.095131126211</v>
       </c>
       <c r="S46" t="n">
-        <v>2078.070475554262</v>
+        <v>1957.09241162863</v>
       </c>
       <c r="T46" t="n">
-        <v>1884.98702479938</v>
+        <v>1764.008960873748</v>
       </c>
       <c r="U46" t="n">
-        <v>1624.567322600616</v>
+        <v>1503.589258674984</v>
       </c>
       <c r="V46" t="n">
-        <v>1398.565999070322</v>
+        <v>1277.58793514469</v>
       </c>
       <c r="W46" t="n">
-        <v>1137.831993708954</v>
+        <v>1016.853929783322</v>
       </c>
       <c r="X46" t="n">
-        <v>938.5256074865293</v>
+        <v>817.5475435608972</v>
       </c>
       <c r="Y46" t="n">
-        <v>746.4161930185917</v>
+        <v>697.0621229204788</v>
       </c>
     </row>
   </sheetData>
@@ -8304,13 +8304,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>199.0269485415595</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8535,10 +8535,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>251.4045252050821</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516228</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8693,7 +8693,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>294.8707872801647</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8702,7 +8702,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>294.8707872801635</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -8924,28 +8924,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>297.8289162490806</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>285.0508825989992</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -9161,22 +9161,22 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>238.2160185885842</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>14.45386895940612</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -9404,10 +9404,10 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>411.0304280899001</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9416,7 +9416,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>283.3156027685499</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -9635,31 +9635,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>64.28566532692543</v>
       </c>
       <c r="M23" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>1.01747575565679</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9875,10 +9875,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>216.9877583263338</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
         <v>449.5135334928325</v>
@@ -9887,7 +9887,7 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>123.4719563470478</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -10112,7 +10112,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10121,19 +10121,19 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>71.0006121086451</v>
+        <v>272.8828616575892</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10349,13 +10349,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>135.6385654278961</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>89.52456338961929</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10367,10 +10367,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10598,13 +10598,13 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>60.0189488469199</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>170.1140909277309</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -10820,31 +10820,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>219.3344627260162</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>295.4822118493984</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11057,28 +11057,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>288.0478149561031</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>161.0524397463282</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11300,10 +11300,10 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>342.3170758598132</v>
       </c>
       <c r="M44" t="n">
-        <v>417.9366924407877</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -11312,13 +11312,13 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23416,16 +23416,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>92.48912964370388</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>130.3466769161721</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.0258082590282</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23650,16 +23650,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>16.14213605696673</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>74.15644263019304</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23668,7 +23668,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
         <v>96.35242040983809</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23890,7 +23890,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>142.2354048423644</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23899,10 +23899,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
@@ -23944,7 +23944,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.2236018200835428</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,13 +24124,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24139,10 +24139,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>131.5404638807659</v>
       </c>
       <c r="I22" t="n">
         <v>96.35242040983809</v>
@@ -24172,19 +24172,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>16.56157311969774</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24376,10 +24376,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
         <v>96.35242040983809</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24421,16 +24421,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>232.2500642919754</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>13.21343690123629</v>
       </c>
     </row>
     <row r="26">
@@ -24601,19 +24601,19 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
@@ -24646,16 +24646,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>101.2504636735949</v>
       </c>
       <c r="U28" t="n">
-        <v>85.51783882994275</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24664,10 +24664,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24844,19 +24844,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590283</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983815</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,28 +24883,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>53.9420594059213</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>46.61145443660536</v>
       </c>
     </row>
     <row r="32">
@@ -25078,7 +25078,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>120.2191399893757</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25087,13 +25087,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>137.6294752301916</v>
       </c>
       <c r="H34" t="n">
-        <v>116.3586818854842</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>67.95608738100148</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,10 +25123,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>161.3726923026053</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>97.24607905356248</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>185.0849254030857</v>
       </c>
     </row>
     <row r="35">
@@ -25309,28 +25309,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>115.9078251824847</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>138.8504880697912</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>120.2191399893757</v>
       </c>
       <c r="E37" t="n">
-        <v>118.0376296177326</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>80.04532209722453</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>116.3586818854842</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>67.95608738100148</v>
+        <v>67.95608738100147</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>60.53581964121073</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25546,25 +25546,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>151.4356471531007</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>138.8504880697912</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>84.69131801875993</v>
       </c>
       <c r="F40" t="n">
-        <v>0.7696293547566455</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>116.3586818854842</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>67.95608738100148</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>60.53581964121073</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25612,7 +25612,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>197.3133223602005</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25786,7 +25786,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>3.964581131880852</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25795,16 +25795,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>36.71025941235231</v>
+        <v>117.0247149940946</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>137.6294752301916</v>
       </c>
       <c r="H43" t="n">
-        <v>116.3586818854842</v>
+        <v>116.3586818854841</v>
       </c>
       <c r="I43" t="n">
-        <v>67.95608738100148</v>
+        <v>67.95608738100142</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,10 +25831,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>60.53581964121072</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>161.3726923026053</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26023,25 +26023,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>138.8504880697912</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>118.0376296177325</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>137.6294752301916</v>
       </c>
       <c r="H46" t="n">
-        <v>116.3586818854842</v>
+        <v>116.3586818854841</v>
       </c>
       <c r="I46" t="n">
-        <v>67.95608738100145</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26068,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>60.53581964121069</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>59.23246364516474</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>70.90775388924395</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>672540.5267530322</v>
+        <v>672540.5267530321</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>672540.5267530322</v>
+        <v>672540.5267530321</v>
       </c>
     </row>
     <row r="8">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>672540.5267530322</v>
+        <v>672540.5267530321</v>
       </c>
     </row>
     <row r="12">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>685944.9544232154</v>
+        <v>685944.9544232152</v>
       </c>
     </row>
   </sheetData>
@@ -26311,22 +26311,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>759463.6371244624</v>
+        <v>759463.6371244621</v>
       </c>
       <c r="C2" t="n">
-        <v>759463.6371244622</v>
+        <v>759463.6371244621</v>
       </c>
       <c r="D2" t="n">
         <v>759463.6371244623</v>
       </c>
       <c r="E2" t="n">
-        <v>734601.3057409192</v>
+        <v>734601.305740919</v>
       </c>
       <c r="F2" t="n">
         <v>734601.305740919</v>
       </c>
       <c r="G2" t="n">
-        <v>734601.3057409187</v>
+        <v>734601.305740919</v>
       </c>
       <c r="H2" t="n">
         <v>734601.305740919</v>
@@ -26335,25 +26335,25 @@
         <v>734601.3057409188</v>
       </c>
       <c r="J2" t="n">
-        <v>734601.305740919</v>
+        <v>734601.3057409187</v>
       </c>
       <c r="K2" t="n">
-        <v>734601.3057409187</v>
+        <v>734601.3057409191</v>
       </c>
       <c r="L2" t="n">
-        <v>749630.5125226397</v>
+        <v>749630.5125226392</v>
       </c>
       <c r="M2" t="n">
+        <v>749630.5125226392</v>
+      </c>
+      <c r="N2" t="n">
+        <v>749630.5125226392</v>
+      </c>
+      <c r="O2" t="n">
         <v>749630.5125226396</v>
       </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>749630.5125226395</v>
-      </c>
-      <c r="O2" t="n">
-        <v>749630.5125226394</v>
-      </c>
-      <c r="P2" t="n">
-        <v>749630.5125226398</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934069</v>
+        <v>727377.4139934067</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,13 +26387,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>22717.06642306928</v>
+        <v>22717.0664230695</v>
       </c>
       <c r="M3" t="n">
         <v>129642.3148389448</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>3.026689228136092e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26415,31 +26415,31 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>183348.6868571279</v>
+      </c>
+      <c r="C4" t="n">
         <v>183348.686857128</v>
-      </c>
-      <c r="C4" t="n">
-        <v>183348.6868571279</v>
       </c>
       <c r="D4" t="n">
         <v>183348.686857128</v>
       </c>
       <c r="E4" t="n">
-        <v>18148.49231918992</v>
+        <v>18148.49231918993</v>
       </c>
       <c r="F4" t="n">
-        <v>18148.49231918992</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="G4" t="n">
-        <v>18148.49231918991</v>
+        <v>18148.49231918993</v>
       </c>
       <c r="H4" t="n">
-        <v>18148.49231918992</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="I4" t="n">
         <v>18148.49231918994</v>
       </c>
       <c r="J4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.49231918989</v>
       </c>
       <c r="K4" t="n">
         <v>18148.49231918994</v>
@@ -26448,16 +26448,16 @@
         <v>27492.30103190629</v>
       </c>
       <c r="M4" t="n">
-        <v>27492.30103190629</v>
+        <v>27492.30103190628</v>
       </c>
       <c r="N4" t="n">
-        <v>27492.30103190626</v>
+        <v>27492.3010319063</v>
       </c>
       <c r="O4" t="n">
-        <v>27492.30103190628</v>
+        <v>27492.3010319063</v>
       </c>
       <c r="P4" t="n">
-        <v>27492.30103190626</v>
+        <v>27492.30103190632</v>
       </c>
     </row>
     <row r="5">
@@ -26491,10 +26491,10 @@
         <v>96383.51825371366</v>
       </c>
       <c r="J5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="K5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="L5" t="n">
         <v>98770.76957511491</v>
@@ -26509,7 +26509,7 @@
         <v>98770.76957511491</v>
       </c>
       <c r="P5" t="n">
-        <v>98770.76957511493</v>
+        <v>98770.76957511491</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-96712.00701061959</v>
+        <v>-96712.00701061988</v>
       </c>
       <c r="C6" t="n">
-        <v>493255.8722039248</v>
+        <v>493255.8722039247</v>
       </c>
       <c r="D6" t="n">
         <v>493255.8722039248</v>
       </c>
       <c r="E6" t="n">
-        <v>-107308.1188253913</v>
+        <v>-107375.3143156171</v>
       </c>
       <c r="F6" t="n">
-        <v>620069.2951680154</v>
+        <v>620002.0996777896</v>
       </c>
       <c r="G6" t="n">
-        <v>620069.2951680152</v>
+        <v>620002.0996777896</v>
       </c>
       <c r="H6" t="n">
-        <v>620069.2951680154</v>
+        <v>620002.0996777896</v>
       </c>
       <c r="I6" t="n">
-        <v>620069.2951680153</v>
+        <v>620002.0996777895</v>
       </c>
       <c r="J6" t="n">
-        <v>443646.0759754225</v>
+        <v>443578.8804851965</v>
       </c>
       <c r="K6" t="n">
-        <v>620069.2951680152</v>
+        <v>620002.0996777897</v>
       </c>
       <c r="L6" t="n">
-        <v>600650.3754925492</v>
+        <v>600623.7994801112</v>
       </c>
       <c r="M6" t="n">
-        <v>493725.1270766736</v>
+        <v>493698.5510642359</v>
       </c>
       <c r="N6" t="n">
-        <v>623367.4419156183</v>
+        <v>623340.8659031807</v>
       </c>
       <c r="O6" t="n">
-        <v>623367.4419156181</v>
+        <v>623340.865903181</v>
       </c>
       <c r="P6" t="n">
-        <v>623367.4419156183</v>
+        <v>623340.8659031809</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="M2" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="N2" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="O2" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="P2" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883666</v>
       </c>
     </row>
     <row r="3">
@@ -26744,7 +26744,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
         <v>1089.776700593298</v>
@@ -26777,7 +26777,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
     </row>
     <row r="4">
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762118</v>
+        <v>712.0330363762116</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26987,7 +26987,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26999,7 +26999,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>200.1263053996828</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27391,7 +27391,7 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>55.56994881277188</v>
       </c>
     </row>
     <row r="3">
@@ -27543,7 +27543,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27552,13 +27552,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,7 +27579,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801578</v>
@@ -27588,7 +27588,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>56.2595003824849</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27597,13 +27597,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>140.21361057172</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27622,16 +27622,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>36.40763974654692</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>77.80144310073501</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27777,7 +27777,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27786,10 +27786,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>56.78966508067717</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
@@ -27819,7 +27819,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27834,13 +27834,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>236.4663446304623</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27859,19 +27859,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>196.9959193870519</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>330.3816442374523</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27907,10 +27907,10 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,10 +28011,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28056,16 +28056,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>7.228882684807957</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28074,7 +28074,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>69.58249272689008</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28381,7 +28381,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>-1.695103855686812e-13</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28621,7 +28621,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>-2.547755138598932e-13</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -29290,7 +29290,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>-1.008970684779342e-12</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="C34" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="D34" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="E34" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="F34" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="G34" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="H34" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="I34" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="J34" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="K34" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="L34" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="M34" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="N34" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="O34" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="P34" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="Q34" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="R34" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="S34" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="T34" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="U34" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="V34" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="W34" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="X34" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="Y34" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883663</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="C37" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="D37" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="E37" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="F37" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="G37" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="H37" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="I37" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="J37" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="K37" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="L37" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="M37" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="N37" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="O37" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="P37" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="Q37" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="R37" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="S37" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="T37" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="U37" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="V37" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="W37" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="X37" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="Y37" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883663</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="C40" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="D40" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="E40" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="F40" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="G40" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="H40" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="I40" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="J40" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="K40" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="L40" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="M40" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="N40" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="O40" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="P40" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="Q40" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="R40" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="S40" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="T40" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="U40" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="V40" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="W40" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="X40" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883663</v>
       </c>
       <c r="Y40" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883663</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="C43" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="D43" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="E43" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="F43" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="G43" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="H43" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="I43" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="J43" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="K43" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="L43" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="M43" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="N43" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="O43" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="P43" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="Q43" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="R43" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="S43" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="T43" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="U43" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="V43" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="W43" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="X43" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="Y43" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883666</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="C46" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="D46" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="E46" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="F46" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="G46" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="H46" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="I46" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="J46" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="K46" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="L46" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="M46" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="N46" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="O46" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="P46" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="Q46" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="R46" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="S46" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="T46" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="U46" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="V46" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="W46" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="X46" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="Y46" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883666</v>
       </c>
     </row>
   </sheetData>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
         <v>44.86703772844668</v>
@@ -31759,40 +31759,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31911,43 +31911,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
         <v>0.1071911508780295</v>
@@ -32096,7 +32096,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I29" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33257,40 +33257,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138801</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O30" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33330,13 +33330,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33345,16 +33345,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33363,16 +33363,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33497,7 +33497,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.3810118616816</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I44" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003813</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623196</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574997</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095027</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099062</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746416</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781692</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806955</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752261</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138798</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233463</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837927</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970252</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987488</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238318</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898503</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,43 +34518,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.1673469098821</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.3612387071222</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112299</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
         <v>0.1071911508780295</v>
@@ -35024,13 +35024,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35255,10 +35255,10 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>289.2671274730086</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>359.8836161407864</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>661.3366991265653</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923323</v>
+        <v>750.4609016724969</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>989.6487598248957</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O11" t="n">
-        <v>802.9237881683829</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>463.1092954636243</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
         <v>159.2338966127272</v>
@@ -35574,19 +35574,19 @@
         <v>319.7573721701982</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>635.0202028044811</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N14" t="n">
-        <v>989.6487598248956</v>
+        <v>837.3527180119107</v>
       </c>
       <c r="O14" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R14" t="n">
         <v>59.61319854222478</v>
@@ -35744,7 +35744,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35881,22 +35881,22 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>693.8061329809163</v>
       </c>
       <c r="M17" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O17" t="n">
-        <v>522.5068698476252</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P17" t="n">
         <v>398.7619862193719</v>
@@ -36124,10 +36124,10 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>866.6205424822323</v>
       </c>
       <c r="M20" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
         <v>552.3018354129115</v>
@@ -36136,7 +36136,7 @@
         <v>888.8531821509645</v>
       </c>
       <c r="P20" t="n">
-        <v>682.0775889879218</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q20" t="n">
         <v>250.7943048037195</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>519.8757797192576</v>
       </c>
       <c r="M23" t="n">
         <v>988.4346493230593</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
-        <v>399.7794619750287</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36595,10 +36595,10 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>672.577872718666</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M26" t="n">
         <v>988.4346493230593</v>
@@ -36607,7 +36607,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>508.0530008882191</v>
+        <v>631.5249572352669</v>
       </c>
       <c r="P26" t="n">
         <v>398.7619862193719</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M29" t="n">
-        <v>988.4346493230593</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O29" t="n">
-        <v>888.8531821509645</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P29" t="n">
-        <v>469.762598328017</v>
+        <v>671.6448478769609</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340054</v>
+        <v>370.402182134006</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306616</v>
       </c>
       <c r="K31" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L31" t="n">
-        <v>319.7573721701982</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M31" t="n">
         <v>347.6333793934838</v>
       </c>
       <c r="N31" t="n">
-        <v>344.8569461675401</v>
+        <v>344.85694616754</v>
       </c>
       <c r="O31" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P31" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265652</v>
+        <v>472.8298519832966</v>
       </c>
       <c r="L32" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M32" t="n">
-        <v>628.4456792198461</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
         <v>989.6487598248956</v>
@@ -37087,10 +37087,10 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>73.97474964190283</v>
+        <v>73.97474964190285</v>
       </c>
       <c r="K34" t="n">
         <v>234.4439925731562</v>
@@ -37233,16 +37233,16 @@
         <v>348.1537051990347</v>
       </c>
       <c r="M34" t="n">
-        <v>376.0297124223204</v>
+        <v>376.0297124223205</v>
       </c>
       <c r="N34" t="n">
-        <v>373.2532791963766</v>
+        <v>373.2532791963767</v>
       </c>
       <c r="O34" t="n">
         <v>330.7494632514764</v>
       </c>
       <c r="P34" t="n">
-        <v>263.353404173947</v>
+        <v>263.3534041739471</v>
       </c>
       <c r="Q34" t="n">
         <v>106.7905715667303</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
         <v>337.1912865554005</v>
@@ -37318,13 +37318,13 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O35" t="n">
-        <v>888.8531821509645</v>
+        <v>568.071949735139</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q35" t="n">
-        <v>420.9083957314504</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
         <v>59.61319854222478</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>73.97474964190286</v>
+        <v>73.97474964190287</v>
       </c>
       <c r="K37" t="n">
         <v>234.4439925731562</v>
@@ -37470,7 +37470,7 @@
         <v>348.1537051990348</v>
       </c>
       <c r="M37" t="n">
-        <v>376.0297124223204</v>
+        <v>376.0297124223205</v>
       </c>
       <c r="N37" t="n">
         <v>373.2532791963767</v>
@@ -37479,7 +37479,7 @@
         <v>330.7494632514764</v>
       </c>
       <c r="P37" t="n">
-        <v>263.353404173947</v>
+        <v>263.3534041739471</v>
       </c>
       <c r="Q37" t="n">
         <v>106.7905715667303</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N38" t="n">
-        <v>989.6487598248956</v>
+        <v>771.6362981389277</v>
       </c>
       <c r="O38" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
-        <v>694.2441980687703</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>73.97474964190283</v>
+        <v>73.97474964190285</v>
       </c>
       <c r="K40" t="n">
         <v>234.4439925731562</v>
@@ -37707,16 +37707,16 @@
         <v>348.1537051990347</v>
       </c>
       <c r="M40" t="n">
-        <v>376.0297124223204</v>
+        <v>376.0297124223205</v>
       </c>
       <c r="N40" t="n">
-        <v>373.2532791963766</v>
+        <v>373.2532791963767</v>
       </c>
       <c r="O40" t="n">
         <v>330.7494632514764</v>
       </c>
       <c r="P40" t="n">
-        <v>263.353404173947</v>
+        <v>263.3534041739471</v>
       </c>
       <c r="Q40" t="n">
         <v>106.7905715667303</v>
@@ -37777,28 +37777,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>989.6487598248956</v>
+        <v>840.3496503690146</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P41" t="n">
-        <v>559.8144259657</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R41" t="n">
         <v>125.3296184152072</v>
@@ -37935,25 +37935,25 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>73.97474964190286</v>
+        <v>73.97474964190289</v>
       </c>
       <c r="K43" t="n">
         <v>234.4439925731562</v>
       </c>
       <c r="L43" t="n">
-        <v>348.1537051990347</v>
+        <v>348.1537051990348</v>
       </c>
       <c r="M43" t="n">
-        <v>376.0297124223204</v>
+        <v>376.0297124223205</v>
       </c>
       <c r="N43" t="n">
-        <v>373.2532791963767</v>
+        <v>373.2532791963768</v>
       </c>
       <c r="O43" t="n">
         <v>330.7494632514764</v>
       </c>
       <c r="P43" t="n">
-        <v>263.353404173947</v>
+        <v>263.3534041739471</v>
       </c>
       <c r="Q43" t="n">
         <v>106.7905715667303</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265655</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L44" t="n">
-        <v>873.2513289427828</v>
+        <v>797.9071902521454</v>
       </c>
       <c r="M44" t="n">
-        <v>956.8578082710147</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129117</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882195</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193721</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636244</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152073</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597719</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013279</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004594</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38175,7 +38175,7 @@
         <v>73.97474964190289</v>
       </c>
       <c r="K46" t="n">
-        <v>234.4439925731563</v>
+        <v>234.4439925731562</v>
       </c>
       <c r="L46" t="n">
         <v>348.1537051990348</v>
@@ -38187,7 +38187,7 @@
         <v>373.2532791963768</v>
       </c>
       <c r="O46" t="n">
-        <v>330.7494632514765</v>
+        <v>330.7494632514764</v>
       </c>
       <c r="P46" t="n">
         <v>263.3534041739471</v>
